--- a/InventorySpreadSheet.xlsx
+++ b/InventorySpreadSheet.xlsx
@@ -3388,7 +3388,7 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
